--- a/Plants_COMPLETE.xlsx
+++ b/Plants_COMPLETE.xlsx
@@ -9,9 +9,15 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plant Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDFScrape.py" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GetLinks_FullHybrid.py" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fill.py" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestLinks.py" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excelify.py" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Data'!$A$1:$Q$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Data'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -103,6 +109,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +473,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0092D050"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -9936,7 +9942,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q111"/>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9948,7 +9954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9976,206 +9982,4962 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>🔵 Blue: Value filled from Missouri Botanical Garden (MBG)</t>
-        </is>
-      </c>
+          <t>🔴 Red: Missing value (empty cell)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Filters applied only to these columns:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Page in PDF, Plant Type, Bloom Color, Sun, Water, Characteristics</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>🛠 How to filter by partial match in Excel:</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1. Click the filter dropdown on the column header (e.g., Sun or Characteristics).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2. Choose 'Text Filters' &gt; 'Contains...'</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3. Type a partial term (e.g., 'shade', 'yellow') and click OK.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>💡 You can use this to find plants matching conditions across categories.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>📁 Script Version Info (Last Modified):</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PDFScrape.py             → 2025-05-28 19:07    Extracts plant data from the PDF guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GetLinks_FullHybrid.py   → 2025-05-28 19:07    Finds official MBG and WF URLs for each plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fill.py                  → 2025-05-28 19:07    Populates missing fields using those links</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TestLinks.py             → 2025-05-28 19:08    Validates that all stored links return a live page</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Excelify.py              → 2025-05-28 19:09    Creates formatted Excel output with filters and highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>📦 Required Python Packages:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pandas         # Data manipulation and CSV reading/writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>numpy          # Efficient handling of missing values (e.g. np.nan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>requests       # HTTP requests for fetching web pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>beautifulsoup4 # HTML parsing to extract detail links from MBG and Wildflower</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>lxml           # Fast and robust HTML parser used by BeautifulSoup</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>tqdm           # Progress bar display for tracking row completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pdfplumber     # Extracts text from PDF fact sheets (e.g. Rutgers guide)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>openpyxl       # Enables reading/writing Excel (.xlsx) files with pandas</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00C0C0C0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>📄 PDFScrape.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>📄 GetLinks_FullHybrid.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>📄 fill.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1">
+      <c r="A35" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>📄 TestLinks.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="1">
+      <c r="A38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="18" customHeight="1">
+      <c r="A39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="18" customHeight="1">
+      <c r="A40" s="5" t="n"/>
+    </row>
+    <row r="41" ht="18" customHeight="1">
+      <c r="A41" s="5" t="n"/>
+    </row>
+    <row r="42" ht="18" customHeight="1">
+      <c r="A42" s="5" t="n"/>
+    </row>
+    <row r="43" ht="18" customHeight="1">
+      <c r="A43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="18" customHeight="1">
+      <c r="A44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="18" customHeight="1">
+      <c r="A45" s="5" t="n"/>
+    </row>
+    <row r="46" ht="18" customHeight="1">
+      <c r="A46" s="5" t="n"/>
+    </row>
+    <row r="47" ht="18" customHeight="1">
+      <c r="A47" s="5" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>📄 Excelify.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1">
+      <c r="A50" s="5" t="n"/>
+    </row>
+    <row r="51" ht="18" customHeight="1">
+      <c r="A51" s="5" t="n"/>
+    </row>
+    <row r="52" ht="18" customHeight="1">
+      <c r="A52" s="5" t="n"/>
+    </row>
+    <row r="53" ht="18" customHeight="1">
+      <c r="A53" s="5" t="n"/>
+    </row>
+    <row r="54" ht="18" customHeight="1">
+      <c r="A54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="18" customHeight="1">
+      <c r="A55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="18" customHeight="1">
+      <c r="A56" s="5" t="n"/>
+    </row>
+    <row r="57" ht="18" customHeight="1">
+      <c r="A57" s="5" t="n"/>
+    </row>
+    <row r="58" ht="18" customHeight="1">
+      <c r="A58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="18" customHeight="1">
+      <c r="A59" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>```python</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t># PDFScrape.py ─ Extracts basic plant rows from the Rutgers PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t># Patched 2025-05-28g —  ignore “Plant Fact Sheet” headers so page 21 resolves correctly</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>🟡 Yellow: Value filled from Wildflower.org (WF)</t>
+          <t>import re, csv                  # std-lib regex and CSV helpers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>🔴 Red: Missing value (empty cell)</t>
+          <t>from pathlib import Path        # portable filesystem paths</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>from typing import Set, List, Dict  # type hints</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Workflow:</t>
+          <t>import pandas as pd             # DataFrame handling</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1. PDFScrape.py → Plants_Nolinks.csv</t>
+          <t>import pdfplumber               # lightweight PDF text extraction</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2. GetLinks_FullHybrid.py → Plants and Links TEST.csv</t>
+          <t>from tqdm import tqdm           # progress-bar for loops</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t># ─── Paths ───────────────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BASE     = Path(__file__).resolve().parent      # folder containing this script</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PDF_PATH = BASE / "Plant Guid Data Base.pdf"    # source guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OUT_CSV  = BASE / "Plants_Nolinks.csv"          # destination file</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t># ─── Column Order (fixed) ────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>COLUMNS = [</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Page in PDF", "Plant Type", "Key",</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Botanical Name", "Common Name",</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Height (ft)", "Spread (ft)",</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Bloom Color", "Bloom Time", "Sun", "Water",</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Characteristics", "Habitats",</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Wildlife Benefits", "Distribution",</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Link: Missouri Botanical Garden", "Link: Wildflower.org",</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t># ─── Page-range → Plant-type Map ─────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PAGE_TYPE_MAP = {</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Herbaceous, Perennial"       : set(range(3, 53)),</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Ferns"                       : set(range(54, 61)),</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Grasses, Sedges, and Rushes" : set(range(62, 81)),</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Shrubs"                      : set(range(82, 111)),</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Trees"                       : set(range(112, 118)),</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>def plant_type(p: int) -&gt; str:               # return label for page number</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return next((lbl for lbl, pages in PAGE_TYPE_MAP.items() if p in pages), "")</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t># ─── Regex Helpers ───────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BOT_LINE_RE = re.compile(        # strict “Genus species” line at start of page</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    r"^[A-Z][A-Za-z×\-]+\s+[A-Za-z×\-]*[a-z][A-Za-z×\-]*(?:\s+[A-Za-z×\-]+){0,3}$")</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BOT_ANY_RE = re.compile(         # fallback: any Latin binomial on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    r"\b([A-Z][A-Za-z×\-]+ [A-Za-z×\-]*[a-z][A-Za-z×\-]*(?: [A-Za-z×\-]+){0,3})\b")</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>STOPWORDS = {                    # text that should never be parsed as names</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Plant Fact", "Plant Fact Sheet", "Plant Symbol", "Plant Materials",</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Plant Materials Programs", "Plant Fact Sheet", "Contributed by",</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t># extract single/dual numbers like “1-2 ft” or “up to 5 ft”</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HEIGHT_RE = re.compile(r"height[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft", re.I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SPREAD_RE = re.compile(r"(?:spread|aerial spread)[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft", re.I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>def clean(line: str) -&gt; str:            # remove trailing punctuation/notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return re.split(r"[,(–-]", line, 1)[0].strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>def is_all_caps_common(l: str) -&gt; bool: # heuristic: “SMOOTH OXEYE” lines</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return bool(re.fullmatch(r"[A-Z][A-Z0-9\s\-]{1,}$", l)) and 1 &lt;= len(l.split()) &lt;= 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>def guess_common(lines: List[str], bot_idx: int) -&gt; str:  # find common name near bot idx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for i in range(bot_idx - 1, max(-1, bot_idx - 6), -1):     # search upward</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ln = lines[i]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if is_all_caps_common(ln) and "PLANT" not in ln and "DESCRIPTION" not in ln:</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return ln</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for ln in lines[bot_idx + 1:]:                             # then downward</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        lower = ln.lower()</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ("plant symbol" in lower) or ("description" in lower) or ("contributed by" in lower):</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ln</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>def gen_key(bot_name: str, used: Set[str]) -&gt; str:  # unique 2-letter key (Genus+species)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    g, s = bot_name.split()[:2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    base = (g[0] + s[0]).upper()</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    suffix, i = "", 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    while base + suffix in used:      # increment until unused</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        suffix = str(i); i += 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    used.add(base + suffix)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return base + suffix</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t># ─── Core Extraction Loop ────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>def extract_rows() -&gt; List[Dict[str, str]]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rows, used_keys = [], set()</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    skip_pages = {1, 2, 22}           # cover indices / legal notice</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with pdfplumber.open(PDF_PATH) as pdf:</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for idx, pg in enumerate(tqdm(pdf.pages, desc="Scanning PDF")):</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            page_num = idx + 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if page_num in skip_pages:                 # skip non-data pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            text  = pg.extract_text() or ""            # raw page text</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            lines = [ln.strip() for ln in text.splitlines() if ln.strip()]  # list of lines</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            # 1️⃣ strict scan first 15 lines for perfect Latin header</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            bot_idx = None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for i, ln in enumerate(lines[:15]):</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if any(sw in ln for sw in STOPWORDS):  # ignore headers</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cand = clean(ln)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if BOT_LINE_RE.match(cand):</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    bot_idx = i</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    break</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            # 2️⃣ fallback: first Latin pair found anywhere</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if bot_idx is None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                for m in BOT_ANY_RE.finditer(text):</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    cand = m.group(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if any(sw in cand for sw in STOPWORDS):</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    bot_idx = -1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    lines.insert(0, clean(cand))       # treat as first line</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    break</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if bot_idx is None:                       # still nothing → skip</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            bot_name = clean(lines[bot_idx])          # botanical name</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            com_name = guess_common(lines, bot_idx)   # common name</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            body     = "\n".join(lines)               # full text for regexes</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            # height / spread extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            height = spread = ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (m := HEIGHT_RE.search(body)):</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                height = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (m := SPREAD_RE.search(body)):</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                spread = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            # assemble row dict with empty placeholders for yet-to-fill fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            rows.append({</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Page in PDF"    : str(page_num),</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Plant Type"     : plant_type(page_num),</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Key"            : gen_key(bot_name, used_keys),</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Botanical Name" : bot_name,</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Common Name"    : com_name,</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Height (ft)"    : height,</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Spread (ft)"    : spread,</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                **{c: "" for c in COLUMNS if c not in {</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    "Page in PDF","Plant Type","Key",</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    "Botanical Name","Common Name",</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    "Height (ft)","Spread (ft)",</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                }},</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            })</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>def main() -&gt; None:                 # orchestrates extraction + CSV save</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = pd.DataFrame(extract_rows(), columns=COLUMNS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"✅  Saved → {OUT_CSV.name} ({len(df)} rows)")</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>if __name__ == "__main__":          # allow CLI execution</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    main()</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>```</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>```python</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>#!/usr/bin/env python3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t># GetLinks_FullHybrid.py ─ Hybrid Bing-Selenium + HTML parse to resolve MBG &amp; WF URLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>import time                          # delays / pacing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>import pandas as pd                  # CSV I/O</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>import requests                      # plain HTTP fallback</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>from bs4 import BeautifulSoup        # HTML parsing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>from urllib.parse import quote_plus  # safe query strings</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>from selenium import webdriver       # headless browser</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3. fill.py → Plants_COMPLETE.csv</t>
+          <t>from selenium.webdriver.chrome.options import Options</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4. Excelify.py → Plants_COMPLETE.xlsx</t>
-        </is>
-      </c>
+          <t>from selenium.webdriver.common.by import By</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>from typing import Optional          # type hints</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>📄 PDFScrape.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="n"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="n"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="n"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="n"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="n"/>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="n"/>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="4" t="n"/>
+          <t># ─── File / Column constants ─────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>INPUT_CSV  = "Plants_Nolinks.csv"            # produced by PDFScrape</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OUTPUT_CSV = "Plants and Links TEST.csv"     # enriched version</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MBG_COL    = "Link: Missouri Botanical Garden"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WF_COL     = "Link: Wildflower.org"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HEADERS    = {"User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"}  # polite header</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t># ─── Selenium: launch Chrome in headless mode ────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>opt = Options()</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>opt.add_argument("--headless=new")   # new headless implementation (Chrome ≥ 109)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>opt.add_argument("--disable-gpu")    # stability on Windows</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>opt.add_argument("--log-level=3")    # suppress warnings</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>📄 GetLinks_FullHybrid.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="4" t="n"/>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="4" t="n"/>
-    </row>
-    <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="4" t="n"/>
-    </row>
-    <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="4" t="n"/>
-    </row>
-    <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="4" t="n"/>
+          <t>driver = webdriver.Chrome(options=opt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t># ─── Lightweight retry wrapper around requests.get ───────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>def safe_get(url: str, retries=2, delay=2) -&gt; Optional[requests.Response]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for _ in range(retries + 1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            r = requests.get(url, headers=HEADERS, timeout=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if r.ok:</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return r</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        except Exception:</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            time.sleep(delay)        # wait then retry</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return None                      # all attempts failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t># ─── Missouri Botanical Garden: parse search results directly (no JS) ────</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>def query_mbg(name: str) -&gt; Optional[str]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    url = ("https://www.missouribotanicalgarden.org/PlantFinder/"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           f"PlantFinderSearchResults.aspx?basic={quote_plus(name)}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if (r := safe_get(url)):</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        soup = BeautifulSoup(r.text, "lxml")</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        a = soup.select_one("a[href*='PlantFinderDetails.aspx']")</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if a and a.get("href"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return "https://www.missouribotanicalgarden.org" + a["href"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t># ─── Bing via Selenium for MBG result ─────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>def selenium_mbg_link(name: str) -&gt; Optional[str]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    query = f'"{name}" site:missouribotanicalgarden.org'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        href = a.get_attribute("href")</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if "PlantFinderDetails.aspx" in href:</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return href</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t># ─── Bing via Selenium for Wildflower.org result ─────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>def selenium_wf_link(name: str) -&gt; Optional[str]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    query = f'"{name}" site:wildflower.org "plants/result.php"'</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        href = a.get_attribute("href")</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if "wildflower.org/plants/result.php" in href:</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return href</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t># Generate variants: botanical, common, and “Genus species” (no subspp.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>def name_variants(row):</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    names = [row["Botanical Name"]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if row.get("Common Name"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        names.append(row["Common Name"])</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    names.append(" ".join(row["Botanical Name"].split()[:2]))</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return list(dict.fromkeys(names))   # dedupe + keep order</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>def title_contains(botanical_name: str) -&gt; bool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """Check if all botanical tokens appear in current tab title."""</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    page_title = driver.title.lower()</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return all(part.lower() in page_title for part in botanical_name.lower().split())</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t># ─── Read CSV &amp; Ensure columns exist ─────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>df = pd.read_csv(INPUT_CSV, dtype=str).fillna("")</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>for col in (MBG_COL, WF_COL):</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if col not in df.columns:</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        df[col] = ""                   # add empty link columns if missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t># ─── Iterate rows and resolve missing links ──────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>for idx, row in df.iterrows():</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    bname = row["Botanical Name"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cname = row.get("Common Name", "")</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    have_mbg = "PlantFinderDetails.aspx" in row[MBG_COL]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    have_wf  = "wildflower.org/plants/result.php" in row[WF_COL]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"\n🔍 {bname} ({cname})")    # progress feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # — MBG lookup (Selenium first, fallback plain HTML) —</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not have_mbg:</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for q in name_variants(row):</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if link := selenium_mbg_link(q):</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                driver.get(link); time.sleep(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if title_contains(bname):</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    df.at[idx, MBG_COL] = link</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    print(f"✅ MBG → {link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    break</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        else:                           # Selenium failed, try HTML search</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for q in name_variants(row):</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if link := query_mbg(q):</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    driver.get(link); time.sleep(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if title_contains(bname):</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        df.at[idx, MBG_COL] = link</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        print(f"✅ MBG (fallback) → {link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        break</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                print("⚠️ MBG not found or invalid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # — WF lookup (only Selenium) —</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not have_wf:</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for q in name_variants(row):</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if link := selenium_wf_link(q):</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                driver.get(link); time.sleep(1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if title_contains(bname):</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    df.at[idx, WF_COL] = link</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    print(f"✅ WF  → {link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    break</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            print("⚠️ WF not found or invalid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1.0)                     # polite pacing</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t># ─── Save &amp; Quit ─────────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>driver.quit()</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>df.to_csv(OUTPUT_CSV, index=False)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>print(f"\n🎉 Done → {OUTPUT_CSV}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>```</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A174"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>```python</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t># fill.py ─ Pulls numeric / habitat details from MBG + Wildflower.org into CSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>from __future__ import annotations      # postpone evaluation of type hints</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>import csv, re, time                    # std-lib helpers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>from pathlib import Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>from typing import Dict, Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>import pandas as pd                     # CSV read-modify-write</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>import requests                         # HTTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>from bs4 import BeautifulSoup           # HTML parsing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>from tqdm import tqdm                   # progress bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t># ─── Files &amp; Network constants ───────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BASE          = Path(__file__).resolve().parent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IN_CSV        = BASE / "Plants and Links.csv"      # must already contain URLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OUT_CSV       = BASE / "Plants_COMPLETE.csv"       # output</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MASTER_CSV    = IN_CSV                            # template for col order</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SLEEP_BETWEEN = 0.7                               # throttle between HTTPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HEADERS = {"User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t># ─── Helper: HTTP fetch with timeout/quiet failure ───────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>def fetch(url: str) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        r = requests.get(url, timeout=12, headers=HEADERS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if r.ok:</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return r.text</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    except requests.RequestException:</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t># ─── Tiny text parsers / cleaners ────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>def grab(txt: str, label_pat: str) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # Search “Label: value” patterns (case-insensitive, dash variants)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    m = re.search(rf"(?:{label_pat})\s*[:–-]\s*(.+?)(?:\n|$)", txt, flags=re.I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return m.group(1).strip() if m else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>def rng(s: str | None) -&gt; str | None:   # normalize “1–3 ft” → “1 - 3”</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not s: return None</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>📄 fill.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="4" t="n"/>
-    </row>
-    <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="4" t="n"/>
-    </row>
-    <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="4" t="n"/>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="4" t="n"/>
-    </row>
-    <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="4" t="n"/>
-    </row>
-    <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="4" t="n"/>
-    </row>
-    <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="4" t="n"/>
-    </row>
-    <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="4" t="n"/>
-    </row>
-    <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="4" t="n"/>
-    </row>
-    <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="4" t="n"/>
+          <t xml:space="preserve">    s = s.replace("–", "-")</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    nums = re.findall(r"[\d.]+", s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    nums = [str(int(float(n))) if float(n).is_integer() else n for n in nums]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return " - ".join(nums) if nums else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>def month_rng(s: str | None) -&gt; str | None:   # Jan–Mar → “Jan, Feb, Mar”</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not s: return None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    s = re.sub(r"\b(?:to|through)\b", "-", s, flags=re.I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    parts = [w.title().strip() for w in re.split(r"[,\-/]", s) if w.strip()]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ", ".join(parts)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>def split_conditions(s: str | None) -&gt; list[str]:</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>📄 Excelify.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="4" t="n"/>
-    </row>
-    <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="4" t="n"/>
-    </row>
-    <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="4" t="n"/>
-    </row>
-    <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="4" t="n"/>
-    </row>
-    <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="4" t="n"/>
-    </row>
-    <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="4" t="n"/>
-    </row>
-    <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="4" t="n"/>
-    </row>
-    <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="4" t="n"/>
-    </row>
-    <row r="60" ht="18" customHeight="1">
-      <c r="A60" s="4" t="n"/>
-    </row>
-    <row r="61" ht="18" customHeight="1">
-      <c r="A61" s="4" t="n"/>
+          <t xml:space="preserve">    if not s: return []</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    s = s.replace(" to ", ",").replace("–", ",").replace("/", ",")</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return [part.strip() for part in s.split(",") if part.strip()]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>def sun_conditions(s: str | None) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ", ".join([p.title() for p in split_conditions(s)]) if s else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>def water_conditions(s: str | None) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ", ".join([p.lower() for p in split_conditions(s)]) if s else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t># Build “Characteristics” composites</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>def mbg_chars(tolerate: str | None, maintenance: str | None) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    parts = []</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if tolerate:     parts.append(f"Tolerate: {tolerate}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if maintenance:  parts.append(f"Maintenance: {maintenance}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>def wf_chars(leaf_retention: str | None, fruit_type: str | None) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    parts = []</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if fruit_type:     parts.append(f"Fruit Type: {fruit_type}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if leaf_retention: parts.append(f"Leaf Retention: {leaf_retention}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t># merge_field: combines MBG+WF values without duplicates</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>def merge_field(primary: str | None, secondary: str | None) -&gt; str | None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    parts = []</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for source in (primary, secondary):</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if source:</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for p in re.split(r"[|,]", source):</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                p = p.strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if p and p not in parts:</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    parts.append(p)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ", ".join(parts) if parts else None</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t># generate unique Key if missing (same algorithm as PDFScrape)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>def gen_key(botanical: str, used: set[str]) -&gt; str:</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    base = "".join(w[0] for w in botanical.split()[:2]).upper()</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    suffix = ""; i = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    while base + suffix in used:</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        suffix = str(i); i += 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    used.add(base + suffix)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return base + suffix</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t># ─── Parsers: MBG &amp; WF HTML → dict of fields ─────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>def parse_mbg(html: str) -&gt; Dict[str, Optional[str]]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return {</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Height (ft)"      : rng(grab(text, r"Height")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Spread (ft)"      : rng(grab(text, r"Spread")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Sun"              : sun_conditions(grab(text, r"Sun")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Water"            : water_conditions(grab(text, r"Water")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Characteristics"  : mbg_chars(grab(text, r"Tolerate"), grab(text, r"Maintenance")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Wildlife Benefits": grab(text, r"Attracts"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Distribution"     : (f"USDA Hardiness Zone {grab(text, r'Zone')}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              if grab(text, r'Zone') else None),</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>def parse_wf(html: str, mbg_missing: bool = False) -&gt; Dict[str, Optional[str]]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    data = {</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Bloom Color" : ", ".join(split_conditions(grab(text, r"Bloom Color"))),</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Bloom Time"  : month_rng(grab(text, r"Bloom Time")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Habitats"    : grab(text, r"Native Habitat"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if mbg_missing:   # if MBG parse failed, fill primary fields from WF</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data.update({</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "Sun"              : sun_conditions(grab(text, r"Light Requirement")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "Water"            : water_conditions(grab(text, r"Soil Moisture")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "Wildlife Benefits": grab(text, r"Benefit"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "Characteristics"  : wf_chars(grab(text, r"Leaf Retention"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                          grab(text, r"Fruit Type")),</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        })</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return data</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t># ─── Main Routine ────────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>def main() -&gt; None:</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = pd.read_csv(IN_CSV, dtype=str).fillna("")</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if "Key" not in df.columns:</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        df["Key"] = ""                              # ensure key column exists</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if "Botanical Name" not in df.columns:</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        raise ValueError("❌ Missing 'Botanical Name' column in input CSV.")</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    used_keys = set(df["Key"].dropna())             # track assigned keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for idx, row in tqdm(df.iterrows(), total=len(df), desc="Website Fill"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if not row.get("Botanical Name", "").strip():</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            continue                                # skip blanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if not row.get("Key"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            df.at[idx, "Key"] = gen_key(row["Botanical Name"], used_keys)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # ─── Parse MBG first ────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        mbg_url = row.get("Link: Missouri Botanical Garden", "").strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        mbg_data = {}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if mbg_url.startswith("http") and (html := fetch(mbg_url)):</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            mbg_data = parse_mbg(html)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for col, val in mbg_data.items():</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if val: df.at[idx, col] = val</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            time.sleep(SLEEP_BETWEEN)              # throttle</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # ─── Then WF (fills missing or merges) ─────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        wf_url = row.get("Link: Wildflower.org", "").strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        mbg_missing = not bool(mbg_data)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if wf_url.startswith("http") and (html := fetch(wf_url)):</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            wf_data = parse_wf(html, mbg_missing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for col, val in wf_data.items():</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if val:</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    # merge certain fields to keep additive info</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if col in {"Sun","Water","Wildlife Benefits","Characteristics"}:</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        df.at[idx, col] = merge_field(df.at[idx, col], val)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        df.at[idx, col] = val</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            time.sleep(SLEEP_BETWEEN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # Reorder columns to template + extras (safety)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    template = list(pd.read_csv(MASTER_CSV, nrows=0).columns)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = df[template + [c for c in df.columns if c not in template]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"✅ Saved → {OUT_CSV}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>if __name__ == "__main__":</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    main()  # CLI entry-point</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>```</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>```python</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t># TestLinks.py ─ Validate every stored link &amp; flag broken ones</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>#BETAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>import pandas as pd               # CSV handling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>import requests                    # HTTP checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>from pathlib import Path           # fs paths</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t># ─── Files ───────────────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BASE         = Path(__file__).resolve().parent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>INPUT_CSV    = BASE / "Plants and Links copy.csv"  # original dataset to verify</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OUTPUT_CSV   = INPUT_CSV.with_name(INPUT_CSV.stem + "_flagged.csv")</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BROKEN_LOG   = BASE / "broken_links.txt"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HEADERS = {"User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"}  # polite header</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MBG_COL = "Link: Missouri Botanical Garden"</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WF_COL  = "Link: Wildflower.org"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t># Prepend 🛑 to already-flagged or fresh broken URLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>def flag_broken_link(original: str) -&gt; str:</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return f"🛑 BROKEN {original}" if not original.startswith("🛑") else original</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t># core validation loop</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>def validate_and_flag(df: pd.DataFrame) -&gt; pd.DataFrame:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    mbg_ok = wf_ok = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    broken = []                             # collect messages for log</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for idx, row in df.iterrows():</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        bot_name = row.get("Botanical Name", "").strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        mbg_link = row.get(MBG_COL, "").strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        wf_link  = row.get(WF_COL, "").strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # ─── MBG check ────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if mbg_link.startswith("http"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                r = requests.get(mbg_link, headers=HEADERS, timeout=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if r.ok:</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    print(f"✅ MBG OK  → {bot_name} → {mbg_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    mbg_ok += 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    raise Exception("Bad status")</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            except Exception:</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                print(f"🛑 MBG ❌ → {bot_name} → {mbg_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                broken.append(f"MBG ❌ {bot_name} → {mbg_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                df.at[idx, MBG_COL] = flag_broken_link(mbg_link)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # ─── WF check ─────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if wf_link.startswith("http"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                r = requests.get(wf_link, headers=HEADERS, timeout=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if r.ok:</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    print(f"✅ WF  OK  → {bot_name} → {wf_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    wf_ok += 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    raise Exception("Bad status")</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            except Exception:</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                print(f"🛑 WF  ❌ → {bot_name} → {wf_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                broken.append(f"WF ❌ {bot_name} → {wf_link}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                df.at[idx, WF_COL] = flag_broken_link(wf_link)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # write summary to text file</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with open(BROKEN_LOG, "w", encoding="utf-8") as f:</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        f.write("Broken Links Log\n================\n\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for entry in broken:</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            f.write(entry + "\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        f.write(f"\nSummary:\nMBG valid: {mbg_ok} / {len(df)}\n"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                f"WF valid: {wf_ok} / {len(df)}\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print("\n✅ Summary:")</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"✔️  MBG valid: {mbg_ok} / {len(df)}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"✔️  WF  valid: {wf_ok} / {len(df)}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"📝 Log saved → {BROKEN_LOG.name}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return df</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>def main():</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = pd.read_csv(INPUT_CSV, dtype=str).fillna("")</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if "Botanical Name" not in df.columns:</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        print("❌ Missing 'Botanical Name' column.")</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    flagged = validate_and_flag(df)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    flagged.to_csv(OUTPUT_CSV, index=False)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"💾 Flagged file saved → {OUTPUT_CSV.name}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>if __name__ == "__main__":</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    main()</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>```</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>```python</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t># /plants/Excelify.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>from pathlib import Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>import pandas as pd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>from openpyxl import load_workbook</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>from openpyxl.styles import PatternFill, Font, Border, Side</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>from openpyxl.utils import get_column_letter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>from datetime import datetime</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BASE      = Path(__file__).resolve().parent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CSV_FILE  = BASE / "Plants_COMPLETE.csv"</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>XLSX_FILE = CSV_FILE.with_suffix(".xlsx")</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t># ─── Load DataFrame and write to Excel ────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>df = pd.read_csv(CSV_FILE, dtype=str).fillna("")</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>df.to_excel(XLSX_FILE, index=False)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wb = load_workbook(XLSX_FILE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ws = wb.active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ws.title = "Plant Data"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t># ─── Freeze Panes, Style Headers, Auto Width ──────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ws.freeze_panes = "A2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HEADER_FILL = PatternFill(start_color="DDDDDD", end_color="DDDDDD", fill_type="solid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BOLD_FONT   = Font(bold=True)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>for cell in ws[1]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cell.fill = HEADER_FILL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cell.font = BOLD_FONT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>for i, column_cells in enumerate(ws.columns, 1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    max_length = max(len(str(cell.value or "")) for cell in column_cells)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws.column_dimensions[get_column_letter(i)].width = min(max_length + 2, 50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t># ─── Filter only specified columns ────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>filter_cols = ["Page in PDF", "Plant Type", "Bloom Color", "Sun", "Water", "Characteristics"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>header = [cell.value for cell in ws[1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>filter_indices = [i+1 for i, val in enumerate(header) if val in filter_cols]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>if filter_indices:</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    col_range = f"{get_column_letter(min(filter_indices))}1:{get_column_letter(max(filter_indices))}1"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws.auto_filter.ref = col_range</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t># ─── Cell Highlighting: Only Missing Values ───────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RED = PatternFill(start_color="FFCCCC", end_color="FFCCCC", fill_type="solid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>for row_idx, row in enumerate(df.itertuples(index=False), start=2):</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for col_idx, col_name in enumerate(header, start=1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cell = ws.cell(row=row_idx, column=col_idx)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if not cell.value or str(cell.value).strip() == "":</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            cell.fill = RED</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t># ─── README Sheet with Instructions ───────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>readme = wb.create_sheet("README")</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>readme.sheet_properties.tabColor = "A9A9A9"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>readme.column_dimensions["A"].width = 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>readme["A1"] = "🌿 Plant Database Export: Excel Legend and Process Notes"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>readme["A3"] = "Legend:"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>readme["A4"] = "🔴 Red: Missing value (empty cell)"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>readme["A6"]  = "Filters applied only to these columns:"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>readme["A7"]  = "Page in PDF, Plant Type, Bloom Color, Sun, Water, Characteristics"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>readme["A9"]  = "🛠 How to filter by partial match in Excel:"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>readme["A10"] = "1. Click the filter dropdown on the column header (e.g., Sun or Characteristics)."</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>readme["A11"] = "2. Choose 'Text Filters' &gt; 'Contains...'"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>readme["A12"] = "3. Type a partial term (e.g., 'shade', 'yellow') and click OK."</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>readme["A13"] = "💡 You can use this to find plants matching conditions across categories."</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t># ─── Add Script Version Info ──────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>script_descriptions = {</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "PDFScrape.py"          : "Extracts plant data from the PDF guide",</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "GetLinks_FullHybrid.py": "Finds official MBG and WF URLs for each plant",</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "fill.py"               : "Populates missing fields using those links",</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "TestLinks.py"          : "Validates that all stored links return a live page",</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Excelify.py"           : "Creates formatted Excel output with filters and highlights",</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>row_start = readme.max_row + 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>for i, (filename, description) in enumerate(script_descriptions.items(), start=row_start + 1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    path = BASE / filename</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if path.exists():</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        modified = datetime.fromtimestamp(path.stat().st_mtime).strftime("%Y-%m-%d %H:%M")</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → {modified}    {description}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → MISSING       {description}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t># ─── Append pip requirements to README (from static file) ────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>req_path = BASE / "requirements.txt"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>readme_row = readme.max_row + 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>except Exception as e:</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t># ─── Scripts Sheet: Code Block Placeholders ───────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>code_sheet = wb.create_sheet("Scripts")</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>code_sheet.sheet_properties.tabColor = "C0C0C0"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>code_sheet.column_dimensions["A"].width = 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gray_fill = PatternFill(start_color="F0F0F0", end_color="F0F0F0", fill_type="solid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>mono_font = Font(name="Consolas", size=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>box_border = Border(</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    left=Side(border_style="thin", color="AAAAAA"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    right=Side(border_style="thin", color="AAAAAA"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    top=Side(border_style="thin", color="AAAAAA"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    bottom=Side(border_style="thin", color="AAAAAA"),</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>def draw_code_box(ws, start_row: int, label: str):</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws[f"A{start_row}"] = f"📄 {label}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws[f"A{start_row}"].font = Font(bold=True)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for r in range(start_row + 1, start_row + 11):</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cell = ws[f"A{r}"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cell.fill = gray_fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cell.font = mono_font</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cell.border = box_border</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ws.row_dimensions[r].height = 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>for i, name in enumerate(script_descriptions, start=0):</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    draw_code_box(code_sheet, i * 12 + 1, name)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t># ─── Individual Markdown-Formatted Code Sheets ────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>for script_name in script_descriptions:</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    path = BASE / script_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not path.exists():</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws = wb.create_sheet(script_name)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws.column_dimensions["A"].width = 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws["A1"] = "```python"</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with open(path, "r", encoding="utf-8") as f:</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for i, line in enumerate(f, start=2):</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ws[f"A{i}"] = line.rstrip("\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws[f"A{i+1}"] = "```"</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t># ─── Save Excel File ──────────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>wb.save(XLSX_FILE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>print(f"📘 Final Excel saved → {XLSX_FILE}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>```</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Plants_COMPLETE.xlsx
+++ b/Plants_COMPLETE.xlsx
@@ -9,12 +9,11 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plant Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDFScrape.py" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GetLinks_FullHybrid.py" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fill.py" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestLinks.py" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excelify.py" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDFScrape.py" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GetLinks_FullHybrid.py" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fill.py" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestLinks.py" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excelify.py" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Data'!$A$1:$L$1</definedName>
@@ -26,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,12 +36,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -61,14 +56,8 @@
         <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0F0F0"/>
-        <bgColor rgb="00F0F0F0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,25 +71,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00AAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="00AAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="00AAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00AAAAAA"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,8 +84,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -9954,7 +9927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10038,103 +10011,110 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>📁 Script Version Info (Last Modified):</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PDFScrape.py             → 2025-05-28 19:07    Extracts plant data from the PDF guide</t>
+          <t>📄 https://github.com/InfusedChooch/Plants.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GetLinks_FullHybrid.py   → 2025-05-28 19:07    Finds official MBG and WF URLs for each plant</t>
+          <t>📁 Script Version Info (Last Modified):</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fill.py                  → 2025-05-28 19:07    Populates missing fields using those links</t>
+          <t>PDFScrape.py             → 2025-05-28 19:07    Extracts plant data from the PDF guide</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TestLinks.py             → 2025-05-28 19:08    Validates that all stored links return a live page</t>
+          <t>GetLinks_FullHybrid.py   → 2025-05-28 19:07    Finds official MBG and WF URLs for each plant</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Excelify.py              → 2025-05-28 19:09    Creates formatted Excel output with filters and highlights</t>
+          <t>fill.py                  → 2025-05-28 19:07    Populates missing fields using those links</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TestLinks.py             → 2025-05-28 19:08    Validates that all stored links return a live page</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Excelify.py              → 2025-05-28 19:18    Creates formatted Excel output with filters and highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>📦 Required Python Packages:</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>pandas         # Data manipulation and CSV reading/writing</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>numpy          # Efficient handling of missing values (e.g. np.nan)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>requests       # HTTP requests for fetching web pages</t>
+          <t>pandas         # Data manipulation and CSV reading/writing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>beautifulsoup4 # HTML parsing to extract detail links from MBG and Wildflower</t>
+          <t>numpy          # Efficient handling of missing values (e.g. np.nan)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lxml           # Fast and robust HTML parser used by BeautifulSoup</t>
+          <t>requests       # HTTP requests for fetching web pages</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tqdm           # Progress bar display for tracking row completion</t>
+          <t>beautifulsoup4 # HTML parsing to extract detail links from MBG and Wildflower</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pdfplumber     # Extracts text from PDF fact sheets (e.g. Rutgers guide)</t>
+          <t>lxml           # Fast and robust HTML parser used by BeautifulSoup</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
+        <is>
+          <t>tqdm           # Progress bar display for tracking row completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pdfplumber     # Extracts text from PDF fact sheets (e.g. Rutgers guide)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>openpyxl       # Enables reading/writing Excel (.xlsx) files with pandas</t>
         </is>
@@ -10146,214 +10126,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00C0C0C0"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="100" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>📄 PDFScrape.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>📄 GetLinks_FullHybrid.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="5" t="n"/>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>📄 fill.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="5" t="n"/>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="5" t="n"/>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="5" t="n"/>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="5" t="n"/>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="5" t="n"/>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="5" t="n"/>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="5" t="n"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="5" t="n"/>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="5" t="n"/>
-    </row>
-    <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="5" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>📄 TestLinks.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="5" t="n"/>
-    </row>
-    <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="5" t="n"/>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="5" t="n"/>
-    </row>
-    <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="5" t="n"/>
-    </row>
-    <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="5" t="n"/>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="5" t="n"/>
-    </row>
-    <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="5" t="n"/>
-    </row>
-    <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="5" t="n"/>
-    </row>
-    <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="5" t="n"/>
-    </row>
-    <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="5" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>📄 Excelify.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="5" t="n"/>
-    </row>
-    <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="5" t="n"/>
-    </row>
-    <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="5" t="n"/>
-    </row>
-    <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="5" t="n"/>
-    </row>
-    <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="5" t="n"/>
-    </row>
-    <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="5" t="n"/>
-    </row>
-    <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="5" t="n"/>
-    </row>
-    <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="5" t="n"/>
-    </row>
-    <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="5" t="n"/>
-    </row>
-    <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11355,7 +11127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12286,7 +12058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13438,7 +13210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14014,13 +13786,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A140"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14447,493 +14219,330 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>readme["A15"] = "📄 https://github.com/InfusedChooch/Plants."</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t># ─── Add Script Version Info ──────────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>script_descriptions = {</t>
+          <t># ─── Add Script Version Info ──────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "PDFScrape.py"          : "Extracts plant data from the PDF guide",</t>
+          <t>script_descriptions = {</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "GetLinks_FullHybrid.py": "Finds official MBG and WF URLs for each plant",</t>
+          <t xml:space="preserve">    "PDFScrape.py"          : "Extracts plant data from the PDF guide",</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "fill.py"               : "Populates missing fields using those links",</t>
+          <t xml:space="preserve">    "GetLinks_FullHybrid.py": "Finds official MBG and WF URLs for each plant",</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "TestLinks.py"          : "Validates that all stored links return a live page",</t>
+          <t xml:space="preserve">    "fill.py"               : "Populates missing fields using those links",</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Excelify.py"           : "Creates formatted Excel output with filters and highlights",</t>
+          <t xml:space="preserve">    "TestLinks.py"          : "Validates that all stored links return a live page",</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">    "Excelify.py"           : "Creates formatted Excel output with filters and highlights",</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>row_start = readme.max_row + 2</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
+          <t>row_start = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>for i, (filename, description) in enumerate(script_descriptions.items(), start=row_start + 1):</t>
+          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">    path = BASE / filename</t>
+          <t>for i, (filename, description) in enumerate(script_descriptions.items(), start=row_start + 1):</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if path.exists():</t>
+          <t xml:space="preserve">    path = BASE / filename</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">        modified = datetime.fromtimestamp(path.stat().st_mtime).strftime("%Y-%m-%d %H:%M")</t>
+          <t xml:space="preserve">    if path.exists():</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → {modified}    {description}"</t>
+          <t xml:space="preserve">        modified = datetime.fromtimestamp(path.stat().st_mtime).strftime("%Y-%m-%d %H:%M")</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">    else:</t>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → {modified}    {description}"</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t xml:space="preserve">    else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → MISSING       {description}"</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-    </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t># ─── Append pip requirements to README (from static file) ────────────────</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>req_path = BASE / "requirements.txt"</t>
+          <t># ─── Append pip requirements to README (from static file) ────────────────</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>readme_row = readme.max_row + 2</t>
+          <t>req_path = BASE / "requirements.txt"</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
+          <t>readme_row = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>try:</t>
+          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
+          <t>try:</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
+          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
+          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>except Exception as e:</t>
+          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>except Exception as e:</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-    </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t># ─── Scripts Sheet: Code Block Placeholders ───────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>code_sheet = wb.create_sheet("Scripts")</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>code_sheet.sheet_properties.tabColor = "C0C0C0"</t>
+          <t># ─── Individual Markdown-Formatted Code Sheets ────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>code_sheet.column_dimensions["A"].width = 100</t>
+          <t>for script_name in script_descriptions:</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    path = BASE / script_name</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>gray_fill = PatternFill(start_color="F0F0F0", end_color="F0F0F0", fill_type="solid")</t>
+          <t xml:space="preserve">    if not path.exists():</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mono_font = Font(name="Consolas", size=10)</t>
+          <t xml:space="preserve">        continue</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>box_border = Border(</t>
+          <t xml:space="preserve">    ws = wb.create_sheet(script_name)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">    left=Side(border_style="thin", color="AAAAAA"),</t>
+          <t xml:space="preserve">    ws.column_dimensions["A"].width = 120</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">    right=Side(border_style="thin", color="AAAAAA"),</t>
+          <t xml:space="preserve">    ws["A1"] = "```python"</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">    top=Side(border_style="thin", color="AAAAAA"),</t>
+          <t xml:space="preserve">    with open(path, "r", encoding="utf-8") as f:</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">    bottom=Side(border_style="thin", color="AAAAAA"),</t>
+          <t xml:space="preserve">        for i, line in enumerate(f, start=2):</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>)</t>
+          <t xml:space="preserve">            ws[f"A{i}"] = line.rstrip("\n")</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws[f"A{i+1}"] = "```"</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>def draw_code_box(ws, start_row: int, label: str):</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws[f"A{start_row}"] = f"📄 {label}"</t>
+          <t># ─── Save Excel File ──────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws[f"A{start_row}"].font = Font(bold=True)</t>
+          <t>wb.save(XLSX_FILE)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for r in range(start_row + 1, start_row + 11):</t>
+          <t>print(f"📘 Final Excel saved → {XLSX_FILE}")</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cell = ws[f"A{r}"]</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cell.fill = gray_fill</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cell.font = mono_font</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cell.border = box_border</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ws.row_dimensions[r].height = 18</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>for i, name in enumerate(script_descriptions, start=0):</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    draw_code_box(code_sheet, i * 12 + 1, name)</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t># ─── Individual Markdown-Formatted Code Sheets ────────────────────────────</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>for script_name in script_descriptions:</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    path = BASE / script_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if not path.exists():</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        continue</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws = wb.create_sheet(script_name)</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws.column_dimensions["A"].width = 120</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws["A1"] = "```python"</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    with open(path, "r", encoding="utf-8") as f:</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        for i, line in enumerate(f, start=2):</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ws[f"A{i}"] = line.rstrip("\n")</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws[f"A{i+1}"] = "```"</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t># ─── Save Excel File ──────────────────────────────────────────────────────</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>wb.save(XLSX_FILE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>print(f"📘 Final Excel saved → {XLSX_FILE}")</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
         <is>
           <t>```</t>
         </is>
